--- a/examples/SAM/freeverb/MIDI Mappings Freeverb.xlsx
+++ b/examples/SAM/freeverb/MIDI Mappings Freeverb.xlsx
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -271,6 +271,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -278,26 +338,22 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -433,8 +489,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,8 +509,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -518,6 +582,8 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -585,6 +651,8 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -917,7 +985,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -938,69 +1006,69 @@
       <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="5"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13">
-        <v>104</v>
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
